--- a/activity/SIGE_P3.xlsx
+++ b/activity/SIGE_P3.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8976FF-B3C7-408E-A560-9B7660E5EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432C87FD-AFF8-45B0-B458-76F92D134D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11303" yWindow="0" windowWidth="11819" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3" sheetId="1" r:id="rId1"/>
     <sheet name="RedHidroclimatologica" sheetId="4" r:id="rId2"/>
     <sheet name="AfectacionVial" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P3'!$B$1:$D$80</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'P3'!$1:$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -101,12 +105,6 @@
   </si>
   <si>
     <t>Falta</t>
-  </si>
-  <si>
-    <t>Tablas (opcional)</t>
-  </si>
-  <si>
-    <t>Ráster (opcional)</t>
   </si>
   <si>
     <t>Elemento</t>
@@ -296,9 +294,6 @@
     </r>
   </si>
   <si>
-    <t>TIN (opcional)</t>
-  </si>
-  <si>
     <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
   </si>
   <si>
@@ -468,9 +463,6 @@
   </si>
   <si>
     <t>2.2. Homologación de vías rurales</t>
-  </si>
-  <si>
-    <t>2.6. Homologación de vías rurales</t>
   </si>
   <si>
     <t>2.3. Homologación de vías urbanas</t>
@@ -936,6 +928,15 @@
       </rPr>
       <t xml:space="preserve">Libro de Excel con la integración de registros del catálogo nacional del IDEAM y otras entidades. </t>
     </r>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>Ráster</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1464,6 +1465,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1746,13 +1750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F81"/>
+  <dimension ref="B1:F80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="B4:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1768,39 +1772,39 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D1" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C81)</f>
-        <v>54.000000000000028</v>
+        <f>SUM(C6:C80)</f>
+        <v>47.000000000000028</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D81)</f>
-        <v>63.000000000000028</v>
+        <f>SUM(D6:D80)</f>
+        <v>47.000000000000028</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E81)," de ",$D$4, " puntos")</f>
-        <v>0 de 63 puntos</v>
+        <f>_xlfn.CONCAT(SUM(E6:E80)," de ",$D$4, " puntos")</f>
+        <v>0 de 47 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -1823,16 +1827,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="10" t="str">
-        <f>IF(ISBLANK(E6),"",C6)</f>
-        <v/>
-      </c>
+      <c r="D6" s="61"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1845,204 +1846,208 @@
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="10" t="str">
-        <f t="shared" ref="D8:D15" si="0">IF(ISBLANK(E8),"",C8)</f>
-        <v/>
-      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4">
         <v>1.5</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4">
         <v>1.5</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4">
         <v>1.5</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
       <c r="B15" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.5</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B22" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+    <row r="21" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B21" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
       <c r="E24" s="21"/>
@@ -2050,667 +2055,681 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:6" ht="82.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
+    <row r="27" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B27" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B28" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1.5</v>
       </c>
       <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" ht="75" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B30" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B31" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>114</v>
+      <c r="B35" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="25"/>
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
-        <v>5</v>
-      </c>
-      <c r="E36" s="25"/>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="23"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
-        <v>4</v>
+      <c r="D37" s="10">
+        <v>1</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="11" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B40" s="9" t="s">
+    <row r="39" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B40" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="C40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="25"/>
       <c r="F41" s="23"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="11" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="D42" s="10"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B43" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B44" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4">
         <v>0.1</v>
       </c>
-      <c r="D44" s="4">
-        <v>0.2</v>
+      <c r="D44" s="10">
+        <v>0.1</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B45" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4">
         <v>0.1</v>
       </c>
-      <c r="D45" s="4">
-        <v>0.2</v>
+      <c r="D45" s="10">
+        <v>0.1</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B46" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4">
         <v>0.1</v>
       </c>
-      <c r="D46" s="4">
-        <v>0.2</v>
+      <c r="D46" s="10">
+        <v>0.1</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
     </row>
     <row r="47" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B47" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4">
         <v>0.1</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.2</v>
+      <c r="D47" s="10">
+        <v>0.1</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B48" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4">
         <v>0.1</v>
       </c>
-      <c r="D48" s="4">
-        <v>0.2</v>
+      <c r="D48" s="10">
+        <v>0.1</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B49" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4">
         <v>0.1</v>
       </c>
-      <c r="D49" s="4">
-        <v>0.2</v>
+      <c r="D49" s="10">
+        <v>0.1</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B50" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4">
         <v>0.1</v>
       </c>
-      <c r="D50" s="4">
-        <v>0.2</v>
+      <c r="D50" s="10">
+        <v>0.1</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B51" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4">
         <v>0.1</v>
       </c>
-      <c r="D51" s="4">
-        <v>0.2</v>
+      <c r="D51" s="10">
+        <v>0.1</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B52" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4">
         <v>0.1</v>
       </c>
-      <c r="D52" s="4">
-        <v>0.2</v>
+      <c r="D52" s="10">
+        <v>0.1</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53" s="4">
         <v>0.1</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B54" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="4">
         <v>0.1</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B55" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
       </c>
-      <c r="D55" s="4">
-        <v>0.2</v>
+      <c r="D55" s="10">
+        <v>0.1</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C56" s="4">
         <v>0.1</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4">
         <v>0.1</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="4">
         <v>0.1</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B61" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B63" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="21"/>
       <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B66" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
+    <row r="65" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B65" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="21"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
       </c>
-      <c r="D69" s="4">
-        <v>1.5</v>
+      <c r="D69" s="10">
+        <v>1</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
       </c>
-      <c r="D70" s="4">
-        <v>1.5</v>
+      <c r="D70" s="10">
+        <v>1</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="4">
-        <v>1.5</v>
+      <c r="D71" s="10">
+        <v>1</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B72" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72" s="4">
-        <v>1.5</v>
+      <c r="D72" s="10">
+        <v>1</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
     <row r="73" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
-      <c r="B74" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B75" s="11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B76" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="21"/>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
+      <c r="B77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="4">
-        <v>3</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="28"/>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16" t="str">
-        <f>IF(ISBLANK(E81),"",C81)</f>
-        <v/>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2720,7 +2739,9 @@
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{9D4A8309-3190-48B2-BCF9-1117BA4CA47C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2746,15 +2767,15 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>14</v>
@@ -2771,39 +2792,39 @@
     </row>
     <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="50">
         <v>20668.046300000002</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>45</v>
-      </c>
       <c r="G4" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="50">
         <v>9105</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="54">
         <v>9109</v>
@@ -2811,27 +2832,27 @@
     </row>
     <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B6" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="50">
         <v>296</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="50">
         <v>3024.4021069999999</v>
@@ -2843,15 +2864,15 @@
         <v>20</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="50">
         <f>C6/C7</f>
@@ -2864,15 +2885,15 @@
         <v>20</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.45">
       <c r="B9" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="51">
         <f>C7/C6</f>
@@ -2882,13 +2903,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2915,12 +2936,12 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>14</v>
@@ -2937,7 +2958,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="34">
         <v>1117</v>
@@ -2954,7 +2975,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="34">
         <v>766</v>
@@ -2971,7 +2992,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="35">
         <f>C4-C5</f>
@@ -2989,7 +3010,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="35">
         <f>ROUND((C5/C4)*10,0)</f>
@@ -3001,7 +3022,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="34">
         <v>1337516.29</v>
@@ -3018,7 +3039,7 @@
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B9" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="34">
         <v>121913.51</v>
@@ -3035,7 +3056,7 @@
     </row>
     <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B10" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="36">
         <f>C8-C9</f>
@@ -3054,7 +3075,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="38">
         <f>(C9/C8)*100</f>

--- a/activity/SIGE_P3.xlsx
+++ b/activity/SIGE_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432C87FD-AFF8-45B0-B458-76F92D134D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B174A0-C10B-4857-9F0D-76E7380A8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,20 +676,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4.2. Obtención e identificación de subzonas hidrográficas: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>identifique, exporte y cree el polígono envolvente de las zubzonas hidrográficas de su caso de estudio y evalúe si las zubzonas obtenidas, permiten definir las subcuencas de los ríos principales identificados en el POT del municipio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">4.2. Investigue y documente el procedimiento requerido para delimitar las cuencas hidrográficas correspondientes a los drenajes principales identificados en la zona de proyecto. </t>
     </r>
     <r>
@@ -937,6 +923,20 @@
   </si>
   <si>
     <t>Ráster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1. Obtención e identificación de subzonas hidrográficas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>identifique, exporte y cree el polígono envolvente de las zubzonas hidrográficas de su caso de estudio y evalúe si las zubzonas obtenidas, permiten definir las subcuencas de los ríos principales identificados en el POT del municipio.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1448,26 +1448,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1753,10 +1753,10 @@
   <dimension ref="B1:F80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="B4:D80"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1771,24 +1771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="56"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="61"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="4"/>
@@ -1932,7 +1932,7 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="4"/>
@@ -2006,7 +2006,7 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="57" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="4"/>
@@ -2080,7 +2080,7 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="57" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="4"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="28" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4">
         <v>1.5</v>
@@ -2115,8 +2115,8 @@
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B30" s="60" t="s">
-        <v>111</v>
+      <c r="B30" s="57" t="s">
+        <v>110</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="53" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="4">
         <v>0.1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B54" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="4">
         <v>0.1</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B55" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4">
         <v>0.1</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="4">
         <v>0.1</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="58" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="60" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="4">
         <v>0.1</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="10"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="65" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="61"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="21"/>
       <c r="F66" s="22"/>
     </row>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="72" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B72" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="73" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="61"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="21"/>
       <c r="F76" s="22"/>
     </row>
@@ -2891,7 +2891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="44" t="s">
         <v>37</v>
       </c>

--- a/activity/SIGE_P3.xlsx
+++ b/activity/SIGE_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B174A0-C10B-4857-9F0D-76E7380A8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DB53A5-404B-4AD7-B398-F28DF5B4C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,31 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CNE_IDEAM_20240702.xls 
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>Ráster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1. Obtención e identificación de subzonas hidrográficas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>identifique, exporte y cree el polígono envolvente de las zubzonas hidrográficas de su caso de estudio y evalúe si las zubzonas obtenidas, permiten definir las subcuencas de los ríos principales identificados en el POT del municipio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CNE_IDEAM_aaaammdd.xls 
 </t>
     </r>
     <r>
@@ -913,29 +936,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Libro de Excel con la integración de registros del catálogo nacional del IDEAM y otras entidades. </t>
-    </r>
-  </si>
-  <si>
-    <t>Tablas</t>
-  </si>
-  <si>
-    <t>TIN</t>
-  </si>
-  <si>
-    <t>Ráster</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.1. Obtención e identificación de subzonas hidrográficas: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>identifique, exporte y cree el polígono envolvente de las zubzonas hidrográficas de su caso de estudio y evalúe si las zubzonas obtenidas, permiten definir las subcuencas de los ríos principales identificados en el POT del municipio.</t>
     </r>
   </si>
 </sst>
@@ -1753,10 +1753,10 @@
   <dimension ref="B1:F80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="28" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="10"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>

--- a/activity/SIGE_P3.xlsx
+++ b/activity/SIGE_P3.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DB53A5-404B-4AD7-B398-F28DF5B4C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056980D-37AD-4FC7-A4DB-790009EE35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P3" sheetId="1" r:id="rId1"/>
-    <sheet name="RedHidroclimatologica" sheetId="4" r:id="rId2"/>
-    <sheet name="AfectacionVial" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'P3'!$B$1:$D$80</definedName>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -86,167 +84,12 @@
     <t>Puntos evaluados</t>
   </si>
   <si>
-    <t>Grupo 1</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Grupo 3</t>
-  </si>
-  <si>
-    <t>Grupo 4</t>
-  </si>
-  <si>
     <t>Descripción de actividades desarrolladas por cada estudiante</t>
   </si>
   <si>
     <t>Referenciados en informe principal</t>
   </si>
   <si>
-    <t>Falta</t>
-  </si>
-  <si>
-    <t>Elemento</t>
-  </si>
-  <si>
-    <t>Área total construcciones, m²</t>
-  </si>
-  <si>
-    <t>Área total construcciones afectadas, m²</t>
-  </si>
-  <si>
-    <t>Área total construcciones no afectadas, m²</t>
-  </si>
-  <si>
-    <t>% afectación</t>
-  </si>
-  <si>
-    <t>Construcciones, #</t>
-  </si>
-  <si>
-    <t>Construcciones afectadas, #</t>
-  </si>
-  <si>
-    <t>Construcciones no afectadas, #</t>
-  </si>
-  <si>
-    <t>Relación de afectación</t>
-  </si>
-  <si>
-    <t>Afectación en construcciones por corredores viales POT</t>
-  </si>
-  <si>
-    <t>Estaciones Colombia</t>
-  </si>
-  <si>
-    <t>Estaciones ZE</t>
-  </si>
-  <si>
-    <t>Aferencia de envolvente, m</t>
-  </si>
-  <si>
-    <t>No indicado en informe</t>
-  </si>
-  <si>
-    <t>1257, buffer 4x</t>
-  </si>
-  <si>
-    <t>Densidad, est. x km²</t>
-  </si>
-  <si>
-    <t>Cobertura, km² x est.</t>
-  </si>
-  <si>
-    <t>0.22, buffer 4x</t>
-  </si>
-  <si>
-    <t>4604, incompleto</t>
-  </si>
-  <si>
-    <t>55, incompleto</t>
-  </si>
-  <si>
-    <t>1x 20668.0463</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1x 20668.0463
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>4x no requerida</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>1x no indicada</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>4x no requerida</t>
-    </r>
-  </si>
-  <si>
-    <t>TIN Domain, km²</t>
-  </si>
-  <si>
-    <t>179 o 241, faltan estaciones</t>
-  </si>
-  <si>
-    <t>2396, faltan estaciones</t>
-  </si>
-  <si>
-    <t>0.07, faltan estaciones</t>
-  </si>
-  <si>
-    <t>13.4, faltan estaciones</t>
-  </si>
-  <si>
-    <t>Instructor a 20240226</t>
-  </si>
-  <si>
-    <t>No indicado</t>
-  </si>
-  <si>
-    <t>No calculado</t>
-  </si>
-  <si>
-    <t>237, faltan estaciones</t>
-  </si>
-  <si>
-    <t>1x no indicada</t>
-  </si>
-  <si>
-    <t>Análisis Red hidro-climatológica en zona de estudio</t>
-  </si>
-  <si>
     <t>Grupo XXX</t>
   </si>
   <si>
@@ -254,9 +97,6 @@
   </si>
   <si>
     <t>Curso taller de Sistemas de Información Geográfica aplicados a Ordenamiento Territorial (OT) - SIGE</t>
-  </si>
-  <si>
-    <t>Calificación Avance P3 - Proyecto final</t>
   </si>
   <si>
     <r>
@@ -937,13 +777,17 @@
       </rPr>
       <t xml:space="preserve">Libro de Excel con la integración de registros del catálogo nacional del IDEAM y otras entidades. </t>
     </r>
+  </si>
+  <si>
+    <t>Calificación Avance P3 - Proyecto final
+Módulo III – Herramientas de análisis espacial aplicadas a OT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,12 +822,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -1029,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1169,122 +1007,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1370,85 +1098,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1466,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1756,7 +1406,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1771,24 +1421,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D1" s="55" t="s">
-        <v>56</v>
+      <c r="D1" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
-        <v>58</v>
+      <c r="B2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B3" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1800,7 +1450,7 @@
         <v>47.000000000000028</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F4" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E80)," de ",$D$4, " puntos")</f>
@@ -1808,7 +1458,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="60"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1827,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="58"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1845,8 +1495,8 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="57" t="s">
-        <v>66</v>
+      <c r="B8" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1855,7 +1505,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>1.5</v>
@@ -1868,7 +1518,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1881,7 +1531,7 @@
     </row>
     <row r="11" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -1894,7 +1544,7 @@
     </row>
     <row r="12" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4">
         <v>1.5</v>
@@ -1907,7 +1557,7 @@
     </row>
     <row r="13" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>1.5</v>
@@ -1920,7 +1570,7 @@
     </row>
     <row r="14" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>1.5</v>
@@ -1932,8 +1582,8 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="57" t="s">
-        <v>88</v>
+      <c r="B15" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10"/>
@@ -1942,7 +1592,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1955,7 +1605,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1968,7 +1618,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1981,7 +1631,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1994,7 +1644,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>1.5</v>
@@ -2006,8 +1656,8 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B21" s="57" t="s">
-        <v>98</v>
+      <c r="B21" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
@@ -2016,7 +1666,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -2029,7 +1679,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -2042,7 +1692,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -2055,7 +1705,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -2068,7 +1718,7 @@
     </row>
     <row r="26" spans="2:6" ht="82.5" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -2080,8 +1730,8 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B27" s="57" t="s">
-        <v>99</v>
+      <c r="B27" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="10"/>
@@ -2090,7 +1740,7 @@
     </row>
     <row r="28" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2103,7 +1753,7 @@
     </row>
     <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4">
         <v>1.5</v>
@@ -2115,8 +1765,8 @@
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B30" s="57" t="s">
-        <v>110</v>
+      <c r="B30" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -2125,7 +1775,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -2138,7 +1788,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2151,7 +1801,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -2164,7 +1814,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2177,7 +1827,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2190,7 +1840,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2216,7 +1866,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="11" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2229,16 +1879,16 @@
     </row>
     <row r="39" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="58"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B40" s="11" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4">
         <v>0.5</v>
@@ -2251,7 +1901,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="11" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="10"/>
@@ -2269,7 +1919,7 @@
     </row>
     <row r="43" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B43" s="13" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4">
         <v>0.1</v>
@@ -2282,7 +1932,7 @@
     </row>
     <row r="44" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B44" s="13" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4">
         <v>0.1</v>
@@ -2295,7 +1945,7 @@
     </row>
     <row r="45" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B45" s="13" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4">
         <v>0.1</v>
@@ -2308,7 +1958,7 @@
     </row>
     <row r="46" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B46" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C46" s="4">
         <v>0.1</v>
@@ -2321,7 +1971,7 @@
     </row>
     <row r="47" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B47" s="13" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4">
         <v>0.1</v>
@@ -2334,7 +1984,7 @@
     </row>
     <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B48" s="13" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4">
         <v>0.1</v>
@@ -2347,7 +1997,7 @@
     </row>
     <row r="49" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B49" s="13" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4">
         <v>0.1</v>
@@ -2360,7 +2010,7 @@
     </row>
     <row r="50" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B50" s="13" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
         <v>0.1</v>
@@ -2373,7 +2023,7 @@
     </row>
     <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B51" s="13" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4">
         <v>0.1</v>
@@ -2386,7 +2036,7 @@
     </row>
     <row r="52" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B52" s="13" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
         <v>0.1</v>
@@ -2399,7 +2049,7 @@
     </row>
     <row r="53" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4">
         <v>0.1</v>
@@ -2412,7 +2062,7 @@
     </row>
     <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B54" s="13" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4">
         <v>0.1</v>
@@ -2425,7 +2075,7 @@
     </row>
     <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B55" s="13" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
@@ -2438,7 +2088,7 @@
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C56" s="4">
         <v>0.1</v>
@@ -2451,7 +2101,7 @@
     </row>
     <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C57" s="4">
         <v>0.1</v>
@@ -2464,7 +2114,7 @@
     </row>
     <row r="58" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
@@ -2477,7 +2127,7 @@
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
@@ -2490,7 +2140,7 @@
     </row>
     <row r="60" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C60" s="4">
         <v>0.1</v>
@@ -2503,7 +2153,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
@@ -2512,7 +2162,7 @@
     </row>
     <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
@@ -2525,7 +2175,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="10"/>
@@ -2534,7 +2184,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>
@@ -2543,7 +2193,7 @@
     </row>
     <row r="65" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2559,13 +2209,13 @@
         <v>4</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="58"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="21"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="10"/>
@@ -2574,7 +2224,7 @@
     </row>
     <row r="68" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -2587,7 +2237,7 @@
     </row>
     <row r="69" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2600,7 +2250,7 @@
     </row>
     <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -2613,7 +2263,7 @@
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="12" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2626,7 +2276,7 @@
     </row>
     <row r="72" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B72" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -2639,7 +2289,7 @@
     </row>
     <row r="73" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -2652,7 +2302,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2681,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="58"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="21"/>
       <c r="F76" s="22"/>
     </row>
@@ -2743,356 +2393,4 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7DCAF1-13F3-40A8-8886-C518BC214473}">
-  <dimension ref="B2:G9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.73046875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.1328125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.73046875" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="50">
-        <v>20668.046300000002</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="50">
-        <v>9105</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="54">
-        <v>9109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="50">
-        <v>296</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="50">
-        <v>3024.4021069999999</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B8" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="50">
-        <f>C6/C7</f>
-        <v>9.7870583846938183E-2</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="51">
-        <f>C7/C6</f>
-        <v>10.21757468581081</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B350C68-8162-4682-9C80-CD778B6C13B8}">
-  <dimension ref="B2:F11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.73046875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="29" customWidth="1"/>
-    <col min="4" max="6" width="11" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="34">
-        <v>1117</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="34">
-        <v>766</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="35">
-        <f>C4-C5</f>
-        <v>351</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="35">
-        <f>ROUND((C5/C4)*10,0)</f>
-        <v>7</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1337516.29</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1337516.29</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="34">
-        <v>121913.51</v>
-      </c>
-      <c r="D9" s="34">
-        <v>96155.61825</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="36">
-        <f>C8-C9</f>
-        <v>1215602.78</v>
-      </c>
-      <c r="D10" s="36">
-        <f>D8-D9</f>
-        <v>1241360.67175</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="38">
-        <f>(C9/C8)*100</f>
-        <v>9.1149177704594528</v>
-      </c>
-      <c r="D11" s="38">
-        <f>(D9/D8)*100</f>
-        <v>7.1891175433833405</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/activity/SIGE_P3.xlsx
+++ b/activity/SIGE_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056980D-37AD-4FC7-A4DB-790009EE35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69666042-7BFB-4686-9CC1-8E5F915AED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,8 +779,26 @@
     </r>
   </si>
   <si>
-    <t>Calificación Avance P3 - Proyecto final
-Módulo III – Herramientas de análisis espacial aplicadas a OT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Módulo III – Herramientas de análisis espacial aplicadas a OT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calificación Avance P3 - Proyecto final</t>
+    </r>
   </si>
 </sst>
 </file>
